--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Alexandre_Laboulbène/Joseph_Alexandre_Laboulbène.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Alexandre_Laboulbène/Joseph_Alexandre_Laboulbène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Alexandre_Laboulb%C3%A8ne</t>
+          <t>Joseph_Alexandre_Laboulbène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Alexandre Laboulbène est un médecin et  entomologiste français, né le 25 août 1825 à Agen et mort le 7 décembre 1898 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Alexandre_Laboulb%C3%A8ne</t>
+          <t>Joseph_Alexandre_Laboulbène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ami de l'entomologiste Jean-Marie Léon Dufour (1780-1865), il étudie à Paris la médecine et obtient son titre de docteur en 1854. Il enseigne à la faculté de médecine jusqu’en 1879[1].
-Il s'intéresse aux espèces d'insectes nuisibles notamment les diptères. La famille de champignons des Laboulbéniacées lui est dédiée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ami de l'entomologiste Jean-Marie Léon Dufour (1780-1865), il étudie à Paris la médecine et obtient son titre de docteur en 1854. Il enseigne à la faculté de médecine jusqu’en 1879.
+Il s'intéresse aux espèces d'insectes nuisibles notamment les diptères. La famille de champignons des Laboulbéniacées lui est dédiée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Alexandre_Laboulb%C3%A8ne</t>
+          <t>Joseph_Alexandre_Laboulbène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b Jean Lhoste, Les entomologistes français : 1750-1950, INRA Éditions, 1987, 351 p.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_Alexandre_Laboulb%C3%A8ne</t>
+          <t>Joseph_Alexandre_Laboulbène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Ouvrage biographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beurnier, Louis et Cambours, Pierre, Joseph-Alexandre Laboulbène (1825-1898), Impr. Darantiere (Dijon), 1901, 495 p. (Lire en ligne).</t>
         </is>
